--- a/medicine/Enfance/La_Pastèque/La_Pastèque.xlsx
+++ b/medicine/Enfance/La_Pastèque/La_Pastèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Past%C3%A8que</t>
+          <t>La_Pastèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Pastèque est une maison d’édition québécoise fondée en 1998 par Frédéric Gauthier et Martin Brault.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Past%C3%A8que</t>
+          <t>La_Pastèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette maison d’édition a été fondée à Montréal par deux libraires, Martin Brault et Frédéric Gauthier, à Montréal[1]. 
-La maison d’édition a reçu ses lettres patentes en juillet 1998 et sa première publication, Spoutnik 1, a été disponible en décembre de la même année[2]. La Pastèque s’est fait notamment connaître grâce à la série Paul, de Michel Rabagliati, et pour un livre paru en 2005, L’Appareil[3]. Cet ouvrage, qui mélange bande dessinée et livre de cuisine, a remporté plusieurs prix. En 2006, La Pastèque a publié les deux tomes du photo-roman revisité Mars et Avril. La Pastèque a aussi réédité l’intégrale des aventures de Michel Risque et réédite toutes les planches du fameux Red Ketchup de Réal Godbout et Pierre Fournier. 
-Depuis, la maison d’édition a ouvert son catalogue à une production jeunesse[4]. 
-En 2013, La Pastèque a fêté ses quinze ans: le Musée des beaux-arts de Montréal accueillait pour l’occasion quinze de ses artistes pour une exposition qui leur était consacrée[5]. Et en 2018, pour ses 20 ans, une exposition des couvertures de ses plus grands succès a été réalisé dans sa galerie-boutique à Montréal[6]. 
-En 2017, La Pastèque se lançait dans un nouveau projet, la création de contenu numérique. Chaque mois sur le site Tout Garni[7] de Télé-Québec, une histoire était publiée[8]. Douze épisodes ont été réalisés au total dans le but de divertir et d'intégrer la bande dessinée au numérique[9].  
-En 2020, La Pastèque a produit la première saison de la websérie La liste des choses qui existent, adaptée de la bande dessinée éponyme de Cathon et Iris[10]. La deuxième saison a été diffusée en 2022[11]. En 2020-2021, la maison d’édition a produit une série de podcasts pour enfants sous la bannière La Pastèque audio, réalisée par le studio québécois La puce à l'oreille[12]. Des podcasts interactifs expliquant la création d’un livre pour enfants ont été produits en 2021, qui mettent en scène le processus créatif de l’auteur Patrick Isabelle[13]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maison d’édition a été fondée à Montréal par deux libraires, Martin Brault et Frédéric Gauthier, à Montréal. 
+La maison d’édition a reçu ses lettres patentes en juillet 1998 et sa première publication, Spoutnik 1, a été disponible en décembre de la même année. La Pastèque s’est fait notamment connaître grâce à la série Paul, de Michel Rabagliati, et pour un livre paru en 2005, L’Appareil. Cet ouvrage, qui mélange bande dessinée et livre de cuisine, a remporté plusieurs prix. En 2006, La Pastèque a publié les deux tomes du photo-roman revisité Mars et Avril. La Pastèque a aussi réédité l’intégrale des aventures de Michel Risque et réédite toutes les planches du fameux Red Ketchup de Réal Godbout et Pierre Fournier. 
+Depuis, la maison d’édition a ouvert son catalogue à une production jeunesse. 
+En 2013, La Pastèque a fêté ses quinze ans: le Musée des beaux-arts de Montréal accueillait pour l’occasion quinze de ses artistes pour une exposition qui leur était consacrée. Et en 2018, pour ses 20 ans, une exposition des couvertures de ses plus grands succès a été réalisé dans sa galerie-boutique à Montréal. 
+En 2017, La Pastèque se lançait dans un nouveau projet, la création de contenu numérique. Chaque mois sur le site Tout Garni de Télé-Québec, une histoire était publiée. Douze épisodes ont été réalisés au total dans le but de divertir et d'intégrer la bande dessinée au numérique.  
+En 2020, La Pastèque a produit la première saison de la websérie La liste des choses qui existent, adaptée de la bande dessinée éponyme de Cathon et Iris. La deuxième saison a été diffusée en 2022. En 2020-2021, la maison d’édition a produit une série de podcasts pour enfants sous la bannière La Pastèque audio, réalisée par le studio québécois La puce à l'oreille. Des podcasts interactifs expliquant la création d’un livre pour enfants ont été produits en 2021, qui mettent en scène le processus créatif de l’auteur Patrick Isabelle. 
 En octobre 2022 est parue la série animée de 9 épisodes Le facteur de l'espace, tirée des 3 tomes de la bande dessinée à succès de Guillaume Perreault.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Past%C3%A8que</t>
+          <t>La_Pastèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bandes dessinées
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La série Paul (bande dessinée), de Michel Rabagliati
 La série Michel Risque, de Réal Godbout et Pierre Fournier (réédition)
 La revue Spoutnik, collectif
@@ -579,7 +599,43 @@
 Rebecca, Martin Matje, Jean-Claude Götting
 La série Le Facteur de l'espace, Guillaume Perreault
 Voler au-dessus des trous, Catherine Lepage
-Jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Pastèque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Past%C3%A8que</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques titres au catalogue</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le canard et le loup, de Leif Tande
 Le noël de Marguerite, de India Desjardins et Pascal Blanchet
 Le voleur de sandwichs, de André Marois et Patrick Doyon
